--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ACD/15/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ACD/15/seed1/result_data_RandomForest.xlsx
@@ -496,7 +496,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-21.4926</v>
+        <v>-21.57179999999998</v>
       </c>
       <c r="B4" t="n">
         <v>8.199999999999999</v>
@@ -530,7 +530,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-22.62550000000001</v>
+        <v>-22.68620000000001</v>
       </c>
       <c r="B6" t="n">
         <v>5.51</v>
@@ -547,13 +547,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-19.83199999999999</v>
+        <v>-19.42989999999999</v>
       </c>
       <c r="B7" t="n">
         <v>9.43</v>
       </c>
       <c r="C7" t="n">
-        <v>-12.29520000000001</v>
+        <v>-12.1635</v>
       </c>
       <c r="D7" t="n">
         <v>-9.359999999999999</v>
@@ -638,7 +638,7 @@
         <v>4.54</v>
       </c>
       <c r="C12" t="n">
-        <v>-10.7259</v>
+        <v>-10.7145</v>
       </c>
       <c r="D12" t="n">
         <v>-6.85</v>
@@ -658,7 +658,7 @@
         <v>-15.83</v>
       </c>
       <c r="D13" t="n">
-        <v>-8.618899999999998</v>
+        <v>-8.536399999999997</v>
       </c>
       <c r="E13" t="n">
         <v>16.47</v>
@@ -675,7 +675,7 @@
         <v>-11.3</v>
       </c>
       <c r="D14" t="n">
-        <v>-7.937099999999996</v>
+        <v>-7.915899999999997</v>
       </c>
       <c r="E14" t="n">
         <v>17.29</v>
@@ -689,7 +689,7 @@
         <v>5.32</v>
       </c>
       <c r="C15" t="n">
-        <v>-14.84669999999999</v>
+        <v>-14.63159999999999</v>
       </c>
       <c r="D15" t="n">
         <v>-10.04</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.54269999999998</v>
+        <v>-21.70999999999999</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
@@ -709,7 +709,7 @@
         <v>-13.59</v>
       </c>
       <c r="D16" t="n">
-        <v>-9.025400000000003</v>
+        <v>-9.112500000000008</v>
       </c>
       <c r="E16" t="n">
         <v>14.68</v>
@@ -760,7 +760,7 @@
         <v>-12.15</v>
       </c>
       <c r="D19" t="n">
-        <v>-7.9472</v>
+        <v>-8.580099999999996</v>
       </c>
       <c r="E19" t="n">
         <v>16.87</v>
@@ -768,13 +768,13 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-19.24979999999999</v>
+        <v>-19.28959999999999</v>
       </c>
       <c r="B20" t="n">
         <v>10.19</v>
       </c>
       <c r="C20" t="n">
-        <v>-11.7655</v>
+        <v>-11.9297</v>
       </c>
       <c r="D20" t="n">
         <v>-10.64</v>
@@ -791,7 +791,7 @@
         <v>9.52</v>
       </c>
       <c r="C21" t="n">
-        <v>-11.80860000000001</v>
+        <v>-11.85760000000001</v>
       </c>
       <c r="D21" t="n">
         <v>-6.74</v>
@@ -808,10 +808,10 @@
         <v>8.81</v>
       </c>
       <c r="C22" t="n">
-        <v>-12.43039999999999</v>
+        <v>-12.9343</v>
       </c>
       <c r="D22" t="n">
-        <v>-8.193500000000006</v>
+        <v>-8.072700000000003</v>
       </c>
       <c r="E22" t="n">
         <v>16.18</v>
@@ -825,7 +825,7 @@
         <v>7.87</v>
       </c>
       <c r="C23" t="n">
-        <v>-12.24160000000001</v>
+        <v>-11.86210000000001</v>
       </c>
       <c r="D23" t="n">
         <v>-8.59</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-21.88869999999999</v>
+        <v>-21.79419999999999</v>
       </c>
       <c r="B28" t="n">
         <v>5.47</v>
@@ -921,13 +921,13 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.49259999999998</v>
+        <v>-21.32489999999997</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
       </c>
       <c r="C29" t="n">
-        <v>-11.88050000000001</v>
+        <v>-11.36420000000001</v>
       </c>
       <c r="D29" t="n">
         <v>-7.09</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.11539999999998</v>
+        <v>-21.2216</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -1012,7 +1012,7 @@
         <v>6.92</v>
       </c>
       <c r="C34" t="n">
-        <v>-11.10680000000001</v>
+        <v>-11.11060000000001</v>
       </c>
       <c r="D34" t="n">
         <v>-7.27</v>
@@ -1049,7 +1049,7 @@
         <v>-10.09</v>
       </c>
       <c r="D36" t="n">
-        <v>-8.294499999999996</v>
+        <v>-8.677299999999995</v>
       </c>
       <c r="E36" t="n">
         <v>15.99</v>
@@ -1108,7 +1108,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-20.26740000000001</v>
+        <v>-20.3099</v>
       </c>
       <c r="B40" t="n">
         <v>10.75</v>
@@ -1148,7 +1148,7 @@
         <v>9.16</v>
       </c>
       <c r="C42" t="n">
-        <v>-11.9576</v>
+        <v>-12.0797</v>
       </c>
       <c r="D42" t="n">
         <v>-7.75</v>
@@ -1165,7 +1165,7 @@
         <v>8.449999999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>-12.95889999999999</v>
+        <v>-13.16589999999999</v>
       </c>
       <c r="D43" t="n">
         <v>-6.95</v>
@@ -1182,7 +1182,7 @@
         <v>10.98</v>
       </c>
       <c r="C44" t="n">
-        <v>-13.99919999999999</v>
+        <v>-14.07209999999999</v>
       </c>
       <c r="D44" t="n">
         <v>-8.220000000000001</v>
@@ -1199,7 +1199,7 @@
         <v>5.73</v>
       </c>
       <c r="C45" t="n">
-        <v>-13.75859999999999</v>
+        <v>-13.84619999999999</v>
       </c>
       <c r="D45" t="n">
         <v>-7.87</v>
@@ -1210,16 +1210,16 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-21.8987</v>
+        <v>-22.03470000000001</v>
       </c>
       <c r="B46" t="n">
         <v>4.17</v>
       </c>
       <c r="C46" t="n">
-        <v>-13.02859999999999</v>
+        <v>-13.889</v>
       </c>
       <c r="D46" t="n">
-        <v>-8.882</v>
+        <v>-8.631299999999996</v>
       </c>
       <c r="E46" t="n">
         <v>16.03</v>
@@ -1284,10 +1284,10 @@
         <v>4.91</v>
       </c>
       <c r="C50" t="n">
-        <v>-14.07269999999998</v>
+        <v>-13.94389999999999</v>
       </c>
       <c r="D50" t="n">
-        <v>-8.044700000000002</v>
+        <v>-8.006599999999999</v>
       </c>
       <c r="E50" t="n">
         <v>16.71</v>
@@ -1295,13 +1295,13 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-21.8077</v>
+        <v>-21.8745</v>
       </c>
       <c r="B51" t="n">
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-10.9962</v>
+        <v>-11.6282</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
@@ -1312,7 +1312,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-22.09799999999999</v>
+        <v>-22.07509999999999</v>
       </c>
       <c r="B52" t="n">
         <v>6.39</v>
@@ -1397,7 +1397,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.61260000000001</v>
+        <v>-22.64620000000002</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.03639999999999</v>
+        <v>-21.9299</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1482,7 +1482,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-21.9724</v>
+        <v>-22.02810000000002</v>
       </c>
       <c r="B62" t="n">
         <v>4.28</v>
@@ -1550,13 +1550,13 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-21.8675</v>
+        <v>-21.62999999999999</v>
       </c>
       <c r="B66" t="n">
         <v>5.18</v>
       </c>
       <c r="C66" t="n">
-        <v>-11.51</v>
+        <v>-10.9317</v>
       </c>
       <c r="D66" t="n">
         <v>-7.15</v>
@@ -1573,7 +1573,7 @@
         <v>5.53</v>
       </c>
       <c r="C67" t="n">
-        <v>-11.2412</v>
+        <v>-10.9824</v>
       </c>
       <c r="D67" t="n">
         <v>-6.43</v>
@@ -1669,7 +1669,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-20.5242</v>
+        <v>-20.73210000000001</v>
       </c>
       <c r="B73" t="n">
         <v>10.24</v>
@@ -1686,7 +1686,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-21.77579999999998</v>
+        <v>-21.95889999999999</v>
       </c>
       <c r="B74" t="n">
         <v>7.45</v>
@@ -1777,7 +1777,7 @@
         <v>8.949999999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>-11.9878</v>
+        <v>-11.37150000000002</v>
       </c>
       <c r="D79" t="n">
         <v>-4.8</v>
@@ -1862,7 +1862,7 @@
         <v>4.99</v>
       </c>
       <c r="C84" t="n">
-        <v>-13.96509999999999</v>
+        <v>-14.07959999999999</v>
       </c>
       <c r="D84" t="n">
         <v>-8.34</v>
@@ -1992,13 +1992,13 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-22.00869999999999</v>
+        <v>-21.69489999999999</v>
       </c>
       <c r="B92" t="n">
         <v>6.16</v>
       </c>
       <c r="C92" t="n">
-        <v>-12.0349</v>
+        <v>-11.1303</v>
       </c>
       <c r="D92" t="n">
         <v>-5.32</v>
@@ -2052,7 +2052,7 @@
         <v>-10.47</v>
       </c>
       <c r="D95" t="n">
-        <v>-8.348499999999994</v>
+        <v>-8.286799999999996</v>
       </c>
       <c r="E95" t="n">
         <v>16.44</v>
@@ -2083,10 +2083,10 @@
         <v>5.08</v>
       </c>
       <c r="C97" t="n">
-        <v>-11.07100000000001</v>
+        <v>-11.3672</v>
       </c>
       <c r="D97" t="n">
-        <v>-8.425999999999995</v>
+        <v>-8.187799999999996</v>
       </c>
       <c r="E97" t="n">
         <v>15.78</v>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-22.0688</v>
+        <v>-22.1333</v>
       </c>
       <c r="B100" t="n">
         <v>5.09</v>
